--- a/data/trans_dic/P70C1_R_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70C1_R_2023-Provincia-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.02733916798944233</v>
+        <v>0.02733916798944234</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.01350552091465721</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.009969501730931807</v>
+        <v>0.009377313365613867</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00316157545032904</v>
+        <v>0.003139612600131643</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.009788076879292869</v>
+        <v>0.01008957162656531</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05740664213999662</v>
+        <v>0.0589305320592055</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04697613062228849</v>
+        <v>0.04321752423024804</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03943984735061931</v>
+        <v>0.03936452420337274</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.3590633971801318</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3176796756039111</v>
+        <v>0.317679675603911</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2172182759445896</v>
+        <v>0.2215703948227666</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2990786943009697</v>
+        <v>0.2908353262584208</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2676607266839011</v>
+        <v>0.2672106130336527</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3682187998549472</v>
+        <v>0.3690169025838086</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4298397194250547</v>
+        <v>0.4301727640083754</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3721524264351193</v>
+        <v>0.3678728392310064</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.3332697648478503</v>
+        <v>0.3332697648478502</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.3721237294673479</v>
+        <v>0.372123729467348</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.3506836805474572</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2654610281393749</v>
+        <v>0.2562962531307403</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.296129231185377</v>
+        <v>0.2972470438702154</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2968059564783755</v>
+        <v>0.2993259978448614</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4117815617845442</v>
+        <v>0.4124160009865254</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4563677496577662</v>
+        <v>0.4508867882455424</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4031690733456154</v>
+        <v>0.4099096542412279</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.3532018419179979</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3146627844464627</v>
+        <v>0.3146627844464626</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2013632139502252</v>
+        <v>0.2019246893598104</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2840950149887482</v>
+        <v>0.284253901785481</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2587969123277666</v>
+        <v>0.2583448206790567</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.376554539802248</v>
+        <v>0.3743454770101597</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4280526236290542</v>
+        <v>0.4233811480156879</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3712131505786773</v>
+        <v>0.3777358031723341</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.02567871258308876</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.02889766955241701</v>
+        <v>0.028897669552417</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01126056195997244</v>
+        <v>0.01192210372925444</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01024387300008658</v>
+        <v>0.010556982021874</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01507327563716347</v>
+        <v>0.01612902250744828</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07248587628380897</v>
+        <v>0.08023519846563773</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05269530703668612</v>
+        <v>0.05250034044598781</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0504711856611743</v>
+        <v>0.0556167322844701</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.2666019483808587</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.2590094540378273</v>
+        <v>0.2590094540378274</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.2636320184862306</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2012369974776321</v>
+        <v>0.2055073129280128</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1923025917769955</v>
+        <v>0.1845246630314777</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2158360046967654</v>
+        <v>0.2131732859850564</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.34541741065335</v>
+        <v>0.3364476042793078</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3442169772667458</v>
+        <v>0.3507759243400386</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3270251203636855</v>
+        <v>0.3159648528918507</v>
       </c>
     </row>
     <row r="22">
@@ -897,10 +897,10 @@
         <v>0.171246516387149</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2965840408579358</v>
+        <v>0.2965840408579359</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2317149532658627</v>
+        <v>0.2317149532658628</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1324232276329783</v>
+        <v>0.1341232126944014</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.255178583591194</v>
+        <v>0.2543318347588173</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2021391770282699</v>
+        <v>0.1990293344662994</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.218653877968966</v>
+        <v>0.2184540815851528</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3404321257050131</v>
+        <v>0.3430826718318886</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2608587336523514</v>
+        <v>0.2652048770402772</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1680861141585639</v>
+        <v>0.1665577354434159</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2410206169275213</v>
+        <v>0.2454607300310191</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2080927942950441</v>
+        <v>0.2120406229932766</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2473152849150647</v>
+        <v>0.2552711412985159</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3358965179108009</v>
+        <v>0.337700968472405</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2720447635740814</v>
+        <v>0.271723108166756</v>
       </c>
     </row>
     <row r="28">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1808064726471526</v>
+        <v>0.1796153316902268</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2434921103023666</v>
+        <v>0.2428686147434579</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2142197952292163</v>
+        <v>0.2129969065655447</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2222681493276789</v>
+        <v>0.221931203979573</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2838423813881585</v>
+        <v>0.2842514003292481</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2445528085365492</v>
+        <v>0.2449753159911002</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1994</v>
+        <v>1876</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3439</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11484</v>
+        <v>11789</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7107</v>
+        <v>6538</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13856</v>
+        <v>13830</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>54904</v>
+        <v>56004</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>51845</v>
+        <v>50416</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>114052</v>
+        <v>113861</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>93071</v>
+        <v>93273</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>74512</v>
+        <v>74570</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>158577</v>
+        <v>156754</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>39106</v>
+        <v>37756</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>35432</v>
+        <v>35566</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>79237</v>
+        <v>79910</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>60661</v>
+        <v>60755</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>54605</v>
+        <v>53949</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>107632</v>
+        <v>109432</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>41689</v>
+        <v>41805</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>50464</v>
+        <v>50492</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>99550</v>
+        <v>99376</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>77959</v>
+        <v>77502</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>76035</v>
+        <v>75206</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>142792</v>
+        <v>145301</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1514</v>
+        <v>1603</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1207</v>
+        <v>1243</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3802</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>9748</v>
+        <v>10790</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>6207</v>
+        <v>6184</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>12732</v>
+        <v>14030</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>27074</v>
+        <v>27648</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>16622</v>
+        <v>15950</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>47694</v>
+        <v>47106</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>46471</v>
+        <v>45264</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>29753</v>
+        <v>30320</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>72264</v>
+        <v>69820</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>50643</v>
+        <v>51293</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>90969</v>
+        <v>90667</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>149366</v>
+        <v>147068</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>83621</v>
+        <v>83544</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>121361</v>
+        <v>122306</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>192755</v>
+        <v>195967</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>75873</v>
+        <v>75183</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>75178</v>
+        <v>76563</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>158839</v>
+        <v>161852</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>111636</v>
+        <v>115227</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>104772</v>
+        <v>105335</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>207654</v>
+        <v>207408</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>345341</v>
+        <v>343065</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>363908</v>
+        <v>362976</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>729319</v>
+        <v>725156</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>424532</v>
+        <v>423889</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>424213</v>
+        <v>424824</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>832589</v>
+        <v>834028</v>
       </c>
     </row>
     <row r="40">
